--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/fuentes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1147D4DC-4033-A344-A8DE-8D29B20EDEC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E449E2D-9B5E-1547-9CBD-2D7498F6C89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12140" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,6 +767,22 @@
         <v>77</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E449E2D-9B5E-1547-9CBD-2D7498F6C89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA30538-2189-F94B-9D15-BB1282DBBF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12140" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,6 +783,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA30538-2189-F94B-9D15-BB1282DBBF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF9F54C-5C4A-C641-A6EC-8B82ECABE8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12140" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,6 +791,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF9F54C-5C4A-C641-A6EC-8B82ECABE8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5462D6E-B3A9-BA48-9D98-34BEB8BFD8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12140" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,6 +799,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5462D6E-B3A9-BA48-9D98-34BEB8BFD8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F245749-742F-9C46-9726-C4089B81341C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12140" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F245749-742F-9C46-9726-C4089B81341C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC60FC6-2108-0640-9026-4ADCB6D31C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12140" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,6 +807,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC60FC6-2108-0640-9026-4ADCB6D31C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350CCA15-B1C5-1D4D-A6A1-F2B39F873E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
+    <workbookView xWindow="12120" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,6 +815,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350CCA15-B1C5-1D4D-A6A1-F2B39F873E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBB6002-13B2-9148-BC3E-E3D058F96BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,6 +823,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBB6002-13B2-9148-BC3E-E3D058F96BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40753D0F-A80C-A44B-85B4-27C078266ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44167</v>
       </c>
@@ -823,12 +823,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44168</v>
       </c>
       <c r="B50">
         <v>8</v>
+      </c>
+      <c r="C50">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/datos/almendralejo.xlsx
+++ b/datos/almendralejo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid_almendralejo/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40753D0F-A80C-A44B-85B4-27C078266ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C08DB6-5CAE-E644-B975-B964C510940C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="-27720" windowWidth="12420" windowHeight="23200" xr2:uid="{48BB2F20-3982-A54D-86CC-9264A1A7C17D}"/>
   </bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD655E-19DC-6347-97FE-29D4FEA61905}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,6 +842,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
